--- a/features.xlsx
+++ b/features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\691 E Data Science\hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1C91FC9-4576-40C3-AF45-C3EF2D39C9AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB169C-B45D-4447-A9E7-791D6265D7A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{EE90F8A7-3C7D-49C7-9451-566B1DE9D154}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:BB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BB1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
